--- a/JobDataExcel/JobData.xlsx
+++ b/JobDataExcel/JobData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac2Data/JobDataCollector/JobDataExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843DBCF9-1707-FC41-A529-5CA6A6311A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48292ECC-62A9-0441-9AAD-23DF72E4C24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
   <si>
     <t>Company Name</t>
   </si>
@@ -54,94 +54,360 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>ConvertCart
+4.1</t>
+  </si>
+  <si>
+    <t>QA Engineer</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>₹7L - ₹7L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://convertcart.keka.com/careers/jobdetails/6462</t>
+  </si>
+  <si>
+    <t>Sacumen
+4.2</t>
+  </si>
+  <si>
+    <t>QA Engineer (Manual)</t>
+  </si>
+  <si>
+    <t>₹4L - ₹6L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://ness-usa.ttcportals.com/jobs/12444233-qa-automation-engineer?tm_job=717&amp;tm_event=view&amp;tm_company=48372</t>
+  </si>
+  <si>
+    <t>Motorola Solutions
+4.0</t>
+  </si>
+  <si>
+    <t>QA Automation Engineer</t>
+  </si>
+  <si>
+    <t>₹6L - ₹9L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://sacumen.com/careers_archive/qa-engineer-manual/</t>
+  </si>
+  <si>
+    <t>Deloitte
+4.1</t>
+  </si>
+  <si>
+    <t>QA/QC Engineer</t>
+  </si>
+  <si>
+    <t>₹8L - ₹10L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://motorolasolutions.wd5.myworkdayjobs.com/Careers/job/Bangalore-India/QA-Automation-Engineer_R37021</t>
+  </si>
+  <si>
+    <t>ConverseNow Technologies
+4.6</t>
+  </si>
+  <si>
+    <t>Quality Analyst Engineer</t>
+  </si>
+  <si>
+    <t>₹4L - ₹8L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/Sprinto/2b69b1b5-c342-43ed-b9ee-f39208130867?lever-source=Indeed</t>
+  </si>
+  <si>
+    <t>Broadridge
+4.0</t>
+  </si>
+  <si>
+    <t>Automation QA Engineer- Gurugram</t>
+  </si>
+  <si>
+    <t>₹6L - ₹10L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://usijobs.deloitte.com/careersUSI/JobDetail/USI-RFA-EH23-QA-QC/122516</t>
+  </si>
+  <si>
+    <t>MRI Software
+3.6</t>
+  </si>
+  <si>
+    <t>QA Engineer (Automation &amp; Manual)</t>
+  </si>
+  <si>
+    <t>₹4L - ₹5L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/ConverseNow/860ee207-17f1-436c-9077-213d4f680838</t>
+  </si>
+  <si>
+    <t>DocOnline Health India Private Limited
+3.2</t>
+  </si>
+  <si>
+    <t>QA Automation Engineer Bangalore, India</t>
+  </si>
+  <si>
+    <t>₹3L - ₹6L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://broadridge.wd5.myworkdayjobs.com/en-US/Careers/job/Automation-QA-Engineer--Gurugram_JR1055150-2</t>
+  </si>
+  <si>
+    <t>Levi Strauss &amp; Co.
+3.9</t>
+  </si>
+  <si>
+    <t>₹5L - ₹8L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://mrisoftware.wd1.myworkdayjobs.com/en-US/External_CareerSite/job/Bangalore-India-Office/QA-Engineer--Automation---Manual-_R-100317</t>
+  </si>
+  <si>
+    <t>Amadeus
+4.0</t>
+  </si>
+  <si>
+    <t>Associate QA Engineer</t>
+  </si>
+  <si>
+    <t>₹9L - ₹9L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://www.doconline.com/careers#QA%20Automation%20Engineer%20Bangalore,%20India</t>
+  </si>
+  <si>
+    <t>Ayla Networks
+3.3</t>
+  </si>
+  <si>
+    <t>https://levistraussandco.wd5.myworkdayjobs.com/en-US/External/job/GCC-Office--ITC-Green-Center-Bengaluru-Karnataka-India/QA-Engineer_R-0103053</t>
+  </si>
+  <si>
+    <t>Zepto
+3.8</t>
+  </si>
+  <si>
+    <t>₹6L - ₹7L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://ghc.wd1.myworkdayjobs.com/en-US/Kaplan_Careers/job/Bangalore-KA-India/QA-Engineer_JR223023-1</t>
+  </si>
+  <si>
+    <t>Friday Media Group
+3.8</t>
+  </si>
+  <si>
+    <t>Test Engineer-Automation</t>
+  </si>
+  <si>
+    <t>Employer Provided Salary:₹8L</t>
+  </si>
+  <si>
+    <t>https://amadeus.wd3.myworkdayjobs.com/jobs/job/Bangalore/Associate-QA-Engineer_R6603-1</t>
+  </si>
+  <si>
+    <t>The Scalers
+4.6</t>
+  </si>
+  <si>
+    <t>₹4L - ₹4L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://jobs.jobvite.com/careers/ayla-networks/job/ojjWmfwE?__jvst=Job%20Board&amp;__jvsd=Indeed</t>
   </si>
   <si>
     <t>Xactly Corporation
 4.5</t>
   </si>
   <si>
-    <t>Associate QA Engineer</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
     <t>₹6L - ₹8L (Glassdoor Est.)</t>
   </si>
   <si>
-    <t>https://careers.xactlycorp.com/jobs/1827/job?utm_source=indeed_integration&amp;iis=Job%20Board&amp;iisn=Indeed&amp;indeed-apply-token=73a2d2b2a8d6d5c0a62696875eaebd669103652d3f0c2cd5445d3e66b1592b0f</t>
+    <t>https://zeptonow.openings.co/#!/job-view/qa-engineer-bangalore-karnataka-india-mobile-app-testing-api-testing-sql-queries-qa-process-knowledge-linux-aws-postman-jira-cloud-tech-2023021617024653?source=indeed</t>
+  </si>
+  <si>
+    <t>Bestol
+4.0</t>
+  </si>
+  <si>
+    <t>https://jobs.siemens.com/jobs/357384?lang=en-us&amp;jobPipeline=Indeed</t>
+  </si>
+  <si>
+    <t>Zeomega Infotech
+4.1</t>
+  </si>
+  <si>
+    <t>₹5L - ₹10L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://www.fridaymediagroup.com/open-positions/test-engineer-automation</t>
+  </si>
+  <si>
+    <t>Fyers securities
+4.6</t>
+  </si>
+  <si>
+    <t>Software QA Engineer (1 or 2)</t>
+  </si>
+  <si>
+    <t>₹7L - ₹10L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://careers.thescalers.com/positions/qa-automation-engineer-406</t>
   </si>
   <si>
     <t>Finastra USA Corporation
 3.8</t>
   </si>
   <si>
-    <t>QA Automation Engineer</t>
-  </si>
-  <si>
-    <t>₹8L - ₹10L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://jobs.lever.co/Sprinto/2b69b1b5-c342-43ed-b9ee-f39208130867?lever-source=Indeed</t>
-  </si>
-  <si>
-    <t>Levi Strauss &amp; Co.
+    <t>https://careers.xactlycorp.com/jobs/1827/job?utm_source=indeed_integration&amp;iis=Job%20Board&amp;iisn=Indeed&amp;indeed-apply-token=73a2d2b2a8d6d5c0a62696875eaebd669103652d3f0c2cd5445d3e66b1592b0f</t>
+  </si>
+  <si>
+    <t>GE Healthcare
+4.3</t>
+  </si>
+  <si>
+    <t>₹7L - ₹8L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://jobs.verizon.com/jobs/12473649-engineer-iii-consultant-qa-test-automation?tm_job=621463-1A&amp;tm_event=view&amp;tm_company=781</t>
+  </si>
+  <si>
+    <t>Cloud Software Group
+1.6</t>
+  </si>
+  <si>
+    <t>₹6L - ₹11L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://phh.tbe.taleo.net/phh03/ats/careers/requisition.jsp?org=BETSLLC&amp;cws=1&amp;rid=1037</t>
+  </si>
+  <si>
+    <t>QA Automation Analyst</t>
+  </si>
+  <si>
+    <t>₹2L - ₹6L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>http://www.metamorfs.com/jobdetail/104</t>
+  </si>
+  <si>
+    <t>TIGI HR SOLUTION
+4.9</t>
+  </si>
+  <si>
+    <t>Software QA (SQA) engineer - (Manual Testing)</t>
+  </si>
+  <si>
+    <t>Employer Provided Salary:₹1L</t>
+  </si>
+  <si>
+    <t>https://career10.successfactors.com/career?career%5fns=job%5flisting&amp;company=zeomegainf&amp;navBarLevel=JOB%5fSEARCH&amp;rcm%5fsite%5flocale=en%5fUS&amp;site=VjItV2MrL0E5UUoyRmlYT2ZLVXV2OWV0UT09&amp;career_job_req_id=4133&amp;selected_lang=en_GB&amp;jobAlertController_jobAlertId=&amp;jobAlertController_jobAlertName=&amp;browserTimeZone=America/Chicago&amp;_s.crb=JMjOvsY2Sbasbl0%2bHZN8ZKQ5wdIe3T8sHTffLAN5BVE%3d</t>
+  </si>
+  <si>
+    <t>Loop Health
+4.7</t>
+  </si>
+  <si>
+    <t>Quality Engineer - Remote</t>
+  </si>
+  <si>
+    <t>₹4L - ₹9L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://recruit.fyers.in/jobs/Careers/38683000006670063/Software-QA-Engineer-1-or-2-?source=CareerSite</t>
+  </si>
+  <si>
+    <t>Paytm
+3.7</t>
+  </si>
+  <si>
+    <t>QA Automation - Senior QA Engineer</t>
+  </si>
+  <si>
+    <t>https://careers.finastra.com/jobs/7592/job?utm_source=indeed_integration&amp;iis=Job%20Board&amp;iisn=Indeed&amp;indeed-apply-token=73a2d2b2a8d6d5c0a62696875eaebd669103652d3f0c2cd5445d3e66b1592b0f</t>
+  </si>
+  <si>
+    <t>Autodesk
+4.3</t>
+  </si>
+  <si>
+    <t>Software QA Engineer - SDET ( Pytest)</t>
+  </si>
+  <si>
+    <t>₹9L - ₹10L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://ghc.wd1.myworkdayjobs.com/en-US/Kaplan_Careers/job/Bangalore-KA-India/QA-Automation-Engineer--Hybrid-_JR228134-2</t>
+  </si>
+  <si>
+    <t>Applied Systems India Private Limited
+3.0</t>
+  </si>
+  <si>
+    <t>₹7L - ₹9L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://jobs.gecareers.com/healthcare/global/en/job/R3698631/QA-Automation-Engineer?utm_source=indeed&amp;codes=indeed&amp;utm_medium=phenom-feeds&amp;ittk=NKBFX3BNG2</t>
+  </si>
+  <si>
+    <t>NOKIA
+4.2</t>
+  </si>
+  <si>
+    <t>Automation Tester, QA Engineer</t>
+  </si>
+  <si>
+    <t>https://careers.cloud.com/jobs/qa-engineer-bangalore-india?source=indeed</t>
+  </si>
+  <si>
+    <t>LSEG (London Stock Exchange Group)
 3.9</t>
   </si>
   <si>
-    <t>QA Engineer</t>
-  </si>
-  <si>
-    <t>₹5L - ₹8L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://careers.finastra.com/jobs/7592/job?utm_source=indeed_integration&amp;iis=Job%20Board&amp;iisn=Indeed&amp;indeed-apply-token=73a2d2b2a8d6d5c0a62696875eaebd669103652d3f0c2cd5445d3e66b1592b0f</t>
-  </si>
-  <si>
-    <t>Hewlett Packard Enterprise
-4.3</t>
-  </si>
-  <si>
-    <t>SW Automation QA engineer</t>
-  </si>
-  <si>
-    <t>about:blank</t>
-  </si>
-  <si>
-    <t>Ayla Networks
-3.3</t>
-  </si>
-  <si>
-    <t>https://careers.hpe.com/us/en/job/HPE1US1150469EXTERNALENUS/SW-Automation-QA-engineer?utm_source=indeed&amp;utm_medium=phenom-feeds</t>
-  </si>
-  <si>
-    <t>Motorola Solutions
-4.0</t>
-  </si>
-  <si>
-    <t>₹6L - ₹9L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://jobs.jobvite.com/careers/ayla-networks/job/ojjWmfwE?__jvst=Job%20Board&amp;__jvsd=Indeed</t>
-  </si>
-  <si>
-    <t>Grab Geezy</t>
-  </si>
-  <si>
-    <t>Employer Provided Salary:₹291.63 Per hour</t>
-  </si>
-  <si>
-    <t>https://motorolasolutions.wd5.myworkdayjobs.com/Careers/job/Bangalore-India/QA-Automation-Engineer_R37021</t>
-  </si>
-  <si>
-    <t>ConvertCart
-4.1</t>
-  </si>
-  <si>
-    <t>₹7L - ₹7L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://ness-usa.ttcportals.com/jobs/12444233-qa-automation-engineer?tm_job=717&amp;tm_event=view&amp;tm_company=48372</t>
+    <t>ForexClear QA Engineer</t>
+  </si>
+  <si>
+    <t>₹3L - ₹5L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://relx.wd3.myworkdayjobs.com/en-US/relx/job/Bengaluru/Quality-Test-Engineer-II_R56760-1</t>
+  </si>
+  <si>
+    <t>JLL
+3.9</t>
+  </si>
+  <si>
+    <t>Senior QA Automation Engineer</t>
+  </si>
+  <si>
+    <t>₹7L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://levistraussandco.wd5.myworkdayjobs.com/en-US/External/job/GCC-Office--ITC-Green-Center-Bengaluru-Karnataka-India/QA-Automation-Analyst_R-0103051</t>
+  </si>
+  <si>
+    <t>Harman International
+3.9</t>
+  </si>
+  <si>
+    <t>QA Engineer (GG 10B)</t>
+  </si>
+  <si>
+    <t>₹5L - ₹6L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://tigihr.com/jobs/view-job/2016/software-qa--sqa--engineer----manual-testing--/in-bangalore</t>
   </si>
 </sst>
 </file>
@@ -501,17 +767,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="35.83203125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.6640625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="166.6640625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -594,95 +860,486 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -693,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7A8DFF-45C2-F143-AFEA-BFF3A01CA87E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -707,6 +1364,12 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>Data!E2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/JobDataExcel/JobData.xlsx
+++ b/JobDataExcel/JobData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac2Data/JobDataCollector/JobDataExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48292ECC-62A9-0441-9AAD-23DF72E4C24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FA0B31-170A-FD40-A37B-4747AB4E8739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
   <si>
     <t>Company Name</t>
   </si>
@@ -56,358 +56,337 @@
     <t>url</t>
   </si>
   <si>
-    <t>ConvertCart
+    <t>NetApp
+4.2</t>
+  </si>
+  <si>
+    <t>OIM (Oracle Identity Management) Engineer</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>₹1L - ₹1L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://goto.wd5.myworkdayjobs.com/GoToCareers/job/Bangalore-KA-IN/Senior-DevOps-Engineer_R23-1144?rx_campaign=indeed25&amp;rx_ch=jobp4p&amp;rx_group=234368&amp;rx_job=R23-1144&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120011Z&amp;rx_vp=cpc&amp;source=Indeed&amp;rx_p=TJD4JWTJMF&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9</t>
+  </si>
+  <si>
+    <t>Exeevo
+2.6</t>
+  </si>
+  <si>
+    <t>Senior Microsoft Dynamics 365 Developer</t>
+  </si>
+  <si>
+    <t>₹4L - ₹8L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://netapp.eightfold.ai/careers/job/15170783?domain=netapp.com&amp;p_sid=U6HyIdb&amp;p_uid=EClnQxVMaT&amp;ss=paid&amp;utm_campaign=india&amp;utm_content=pj_board&amp;utm_medium=jobad&amp;utm_source=indeed&amp;dclid=CMWmisqNov4CFdI8KwodgpMB5g</t>
+  </si>
+  <si>
+    <t>lululemon India Tech Hub
+4.3</t>
+  </si>
+  <si>
+    <t>Senior Fullstack Engineer</t>
+  </si>
+  <si>
+    <t>₹3L - ₹4L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://clarivate.wd3.myworkdayjobs.com/en-US/Clarivate_Careers/job/India---Bangalore/Lead-Software-Engineer_JREQ119833-1</t>
+  </si>
+  <si>
+    <t>Site Reliability Engineer</t>
+  </si>
+  <si>
+    <t>₹2L - ₹6L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://exeevo.bamboohr.com/jobs/view.php?id=48&amp;source=aWQ9MTk%3D</t>
+  </si>
+  <si>
+    <t>Infosys Limited
+3.9</t>
+  </si>
+  <si>
+    <t>.NET Core / Java Full stack Developers</t>
+  </si>
+  <si>
+    <t>₹3L - ₹8L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://talent500.co/jobs/lululemon-india-tech-hub/lululemon-india-tech-hub-full-stack-engineer-1287?utm_source=indeed&amp;utm_medium=cpc</t>
+  </si>
+  <si>
+    <t>ANZ Banking Group
 4.1</t>
   </si>
   <si>
-    <t>QA Engineer</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>₹7L - ₹7L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://convertcart.keka.com/careers/jobdetails/6462</t>
-  </si>
-  <si>
-    <t>Sacumen
-4.2</t>
-  </si>
-  <si>
-    <t>QA Engineer (Manual)</t>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-154045</t>
+  </si>
+  <si>
+    <t>Uber
+4.3</t>
+  </si>
+  <si>
+    <t>Software Engineer II - Full Stack</t>
+  </si>
+  <si>
+    <t>₹5L - ₹6L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://talent500.co/jobs/hilton-gcc-by-ansr/hilton-gcc-by-ansr-engineer-enterprise-core-services-3901?utm_source=indeed&amp;utm_medium=cpc</t>
+  </si>
+  <si>
+    <t>Sr Software Engineer</t>
+  </si>
+  <si>
+    <t>₹1L - ₹5L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://netapp.eightfold.ai/careers/job/15415457?domain=netapp.com&amp;p_sid=Gq_DNjb&amp;p_uid=wFWRBARd7Z&amp;ss=paid&amp;utm_campaign=india&amp;utm_content=pj_board&amp;utm_medium=jobad&amp;utm_source=indeed&amp;dclid=CILxmu2Nov4CFXpOnQkdrZcHog</t>
+  </si>
+  <si>
+    <t>Sr Staff Engineer - Backend</t>
+  </si>
+  <si>
+    <t>₹4L - ₹5L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-155762</t>
+  </si>
+  <si>
+    <t>Power Programmer - Senior Technologist .NET Full Stack (FY- 24)</t>
   </si>
   <si>
     <t>₹4L - ₹6L (Glassdoor Est.)</t>
   </si>
   <si>
-    <t>https://ness-usa.ttcportals.com/jobs/12444233-qa-automation-engineer?tm_job=717&amp;tm_event=view&amp;tm_company=48372</t>
-  </si>
-  <si>
-    <t>Motorola Solutions
+    <t>https://www.uber.com/global/en/careers/list/121487/?iis=marketing&amp;iisn=Indeed&amp;iisp=paid&amp;rx_campaign=indeed302&amp;rx_ch=jobp4p&amp;rx_group=201764&amp;rx_job=121487&amp;rx_p=UQVRZKBRIL&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120009Z&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9&amp;rx_vp=cpc</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer / Architect - Trip Operations Platform</t>
+  </si>
+  <si>
+    <t>https://careers.anz.com/job/Bengaluru-Engineer/937337810/</t>
+  </si>
+  <si>
+    <t>MES India
+3.1</t>
+  </si>
+  <si>
+    <t>Engineering Manager - Java &amp; Javascript</t>
+  </si>
+  <si>
+    <t>https://www.uber.com/global/en/careers/list/121384/?iis=marketing&amp;iisn=Indeed&amp;iisp=paid&amp;rx_campaign=indeed302&amp;rx_ch=jobp4p&amp;rx_group=201764&amp;rx_job=121384&amp;rx_p=J194QSDW9B&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120009Z&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9&amp;rx_vp=cpc</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer - Communications Growth Platform</t>
+  </si>
+  <si>
+    <t>https://www.uber.com/global/en/careers/list/121486/?iis=marketing&amp;iisn=Indeed&amp;iisp=paid&amp;rx_campaign=indeed302&amp;rx_ch=jobp4p&amp;rx_group=201764&amp;rx_job=121486&amp;rx_p=OQEQXQCYOK&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120009Z&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9&amp;rx_vp=cpc</t>
+  </si>
+  <si>
+    <t>Capgemini
 4.0</t>
   </si>
   <si>
-    <t>QA Automation Engineer</t>
-  </si>
-  <si>
-    <t>₹6L - ₹9L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://sacumen.com/careers_archive/qa-engineer-manual/</t>
+    <t>Software Engineer Lead</t>
+  </si>
+  <si>
+    <t>₹4L - ₹4L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://www.uber.com/global/en/careers/list/119020/?iis=marketing&amp;iisn=Indeed&amp;iisp=paid&amp;rx_campaign=indeed302&amp;rx_ch=jobp4p&amp;rx_group=201764&amp;rx_job=119020&amp;rx_p=EEHPBGRUBX&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120009Z&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9&amp;rx_vp=cpc</t>
+  </si>
+  <si>
+    <t>Power Programmer - Specialist Programmer .NET Full Stack (FY-24)</t>
+  </si>
+  <si>
+    <t>https://www.uber.com/global/en/careers/list/120361/?iis=marketing&amp;iisn=Indeed&amp;iisp=paid&amp;rx_campaign=indeed302&amp;rx_ch=jobp4p&amp;rx_group=201764&amp;rx_job=120361&amp;rx_p=H4MMMZNRGW&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120009Z&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9&amp;rx_vp=cpc</t>
   </si>
   <si>
     <t>Deloitte
 4.1</t>
   </si>
   <si>
-    <t>QA/QC Engineer</t>
-  </si>
-  <si>
-    <t>₹8L - ₹10L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://motorolasolutions.wd5.myworkdayjobs.com/Careers/job/Bangalore-India/QA-Automation-Engineer_R37021</t>
-  </si>
-  <si>
-    <t>ConverseNow Technologies
-4.6</t>
-  </si>
-  <si>
-    <t>Quality Analyst Engineer</t>
-  </si>
-  <si>
-    <t>₹4L - ₹8L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://jobs.lever.co/Sprinto/2b69b1b5-c342-43ed-b9ee-f39208130867?lever-source=Indeed</t>
-  </si>
-  <si>
-    <t>Broadridge
+    <t>QC Engineer - Consultant / Sr. Consultant</t>
+  </si>
+  <si>
+    <t>₹5L - ₹10L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://www.uber.com/global/en/careers/list/121170/?iis=marketing&amp;iisn=Indeed&amp;iisp=paid&amp;rx_campaign=indeed302&amp;rx_ch=jobp4p&amp;rx_group=201764&amp;rx_job=121170&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120009Z&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9&amp;rx_vp=cpc</t>
+  </si>
+  <si>
+    <t>nahar technologies
+3.8</t>
+  </si>
+  <si>
+    <t>Software Developer (Java, J2EE)</t>
+  </si>
+  <si>
+    <t>₹3L - ₹7L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>about:blank</t>
+  </si>
+  <si>
+    <t>Gigahertz Computing (India)
+3.2</t>
+  </si>
+  <si>
+    <t>Jr. Java Developer</t>
+  </si>
+  <si>
+    <t>Clorida
+1.6</t>
+  </si>
+  <si>
+    <t>Junior Java Developers</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>₹6L - ₹8L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-155392</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz Research and Development India Private Limited
 4.0</t>
   </si>
   <si>
-    <t>Automation QA Engineer- Gurugram</t>
-  </si>
-  <si>
-    <t>₹6L - ₹10L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://usijobs.deloitte.com/careersUSI/JobDetail/USI-RFA-EH23-QA-QC/122516</t>
-  </si>
-  <si>
-    <t>MRI Software
-3.6</t>
-  </si>
-  <si>
-    <t>QA Engineer (Automation &amp; Manual)</t>
-  </si>
-  <si>
-    <t>₹4L - ₹5L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://jobs.lever.co/ConverseNow/860ee207-17f1-436c-9077-213d4f680838</t>
-  </si>
-  <si>
-    <t>DocOnline Health India Private Limited
-3.2</t>
-  </si>
-  <si>
-    <t>QA Automation Engineer Bangalore, India</t>
+    <t>Java Full stack developer</t>
+  </si>
+  <si>
+    <t>₹3L - ₹3L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>Tatwa Technologies
+4.3</t>
+  </si>
+  <si>
+    <t>https://jobs.mercedes-benz.com/Stellenanzeige/DE_390102/java-full-stack-developer.html</t>
+  </si>
+  <si>
+    <t>Log9 Materials
+4.3</t>
+  </si>
+  <si>
+    <t>Java Developer (Experienced 2-4 Yrs)</t>
   </si>
   <si>
     <t>₹3L - ₹6L (Glassdoor Est.)</t>
   </si>
   <si>
-    <t>https://broadridge.wd5.myworkdayjobs.com/en-US/Careers/job/Automation-QA-Engineer--Gurugram_JR1055150-2</t>
-  </si>
-  <si>
-    <t>Levi Strauss &amp; Co.
+    <t>https://www.tatwa.com/careers.html#</t>
+  </si>
+  <si>
+    <t>Java Back end developer</t>
+  </si>
+  <si>
+    <t>https://daytonasystems.in/daytonacareers/java-intern-backend/</t>
+  </si>
+  <si>
+    <t>Hitachi Energy
 3.9</t>
   </si>
   <si>
+    <t>Junior Java Software Engineer</t>
+  </si>
+  <si>
+    <t>₹4L - ₹7L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://www.log9materials.com/careers/?jobId=CeGPNorHfAhw</t>
+  </si>
+  <si>
+    <t>Clarivate
+3.5</t>
+  </si>
+  <si>
+    <t>Lead Software Engineer</t>
+  </si>
+  <si>
+    <t>₹6L - ₹7L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>GoTo
+3.9</t>
+  </si>
+  <si>
+    <t>Staff Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>₹2L - ₹8L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://goto.wd5.myworkdayjobs.com/GoToCareers/job/Bangalore-KA-IN/Senior-DevOps-Engineer_R23-1144?rx_campaign=indeed25&amp;rx_ch=jobp4p&amp;rx_group=234368&amp;rx_job=R23-1144&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230418T120127Z&amp;rx_vp=cpc&amp;source=Indeed&amp;rx_p=QJAFNZC8S3&amp;rx_viewer=f9054bdfde0511edb5cab97de43d9c17d297ebb55c344a478d90d81e62feab9e</t>
+  </si>
+  <si>
+    <t>Infosys
+3.9</t>
+  </si>
+  <si>
+    <t>Technology Analyst - Java (3-5 years) - Bangalore</t>
+  </si>
+  <si>
     <t>₹5L - ₹8L (Glassdoor Est.)</t>
   </si>
   <si>
-    <t>https://mrisoftware.wd1.myworkdayjobs.com/en-US/External_CareerSite/job/Bangalore-India-Office/QA-Engineer--Automation---Manual-_R-100317</t>
-  </si>
-  <si>
-    <t>Amadeus
+    <t>https://recruitingapp-5315.de.umantis.com/Vacancies/2121/Description/2</t>
+  </si>
+  <si>
+    <t>https://usijobs.deloitte.com/careersUSI/JobDetail/USI-R-FA-EH-QC-Engineer-SA-LSA/139565</t>
+  </si>
+  <si>
+    <t>Technology Lead - Java (5-8 years) - Bangalore</t>
+  </si>
+  <si>
+    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-156175</t>
+  </si>
+  <si>
+    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-155455</t>
+  </si>
+  <si>
+    <t>Telstra
 4.0</t>
   </si>
   <si>
-    <t>Associate QA Engineer</t>
-  </si>
-  <si>
-    <t>₹9L - ₹9L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://www.doconline.com/careers#QA%20Automation%20Engineer%20Bangalore,%20India</t>
-  </si>
-  <si>
-    <t>Ayla Networks
-3.3</t>
-  </si>
-  <si>
-    <t>https://levistraussandco.wd5.myworkdayjobs.com/en-US/External/job/GCC-Office--ITC-Green-Center-Bengaluru-Karnataka-India/QA-Engineer_R-0103053</t>
-  </si>
-  <si>
-    <t>Zepto
-3.8</t>
-  </si>
-  <si>
-    <t>₹6L - ₹7L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://ghc.wd1.myworkdayjobs.com/en-US/Kaplan_Careers/job/Bangalore-KA-India/QA-Engineer_JR223023-1</t>
-  </si>
-  <si>
-    <t>Friday Media Group
-3.8</t>
-  </si>
-  <si>
-    <t>Test Engineer-Automation</t>
-  </si>
-  <si>
-    <t>Employer Provided Salary:₹8L</t>
-  </si>
-  <si>
-    <t>https://amadeus.wd3.myworkdayjobs.com/jobs/job/Bangalore/Associate-QA-Engineer_R6603-1</t>
-  </si>
-  <si>
-    <t>The Scalers
-4.6</t>
-  </si>
-  <si>
-    <t>₹4L - ₹4L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://jobs.jobvite.com/careers/ayla-networks/job/ojjWmfwE?__jvst=Job%20Board&amp;__jvsd=Indeed</t>
-  </si>
-  <si>
-    <t>Xactly Corporation
-4.5</t>
-  </si>
-  <si>
-    <t>₹6L - ₹8L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://zeptonow.openings.co/#!/job-view/qa-engineer-bangalore-karnataka-india-mobile-app-testing-api-testing-sql-queries-qa-process-knowledge-linux-aws-postman-jira-cloud-tech-2023021617024653?source=indeed</t>
-  </si>
-  <si>
-    <t>Bestol
+    <t>Senior Software Engineer</t>
+  </si>
+  <si>
+    <t>₹5L - ₹9L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-155237</t>
+  </si>
+  <si>
+    <t>Engineer - Backend</t>
+  </si>
+  <si>
+    <t>₹4L - ₹9L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-154046</t>
+  </si>
+  <si>
+    <t>Capgemini Technology Services India Limited
 4.0</t>
   </si>
   <si>
-    <t>https://jobs.siemens.com/jobs/357384?lang=en-us&amp;jobPipeline=Indeed</t>
-  </si>
-  <si>
-    <t>Zeomega Infotech
-4.1</t>
-  </si>
-  <si>
-    <t>₹5L - ₹10L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://www.fridaymediagroup.com/open-positions/test-engineer-automation</t>
-  </si>
-  <si>
-    <t>Fyers securities
-4.6</t>
-  </si>
-  <si>
-    <t>Software QA Engineer (1 or 2)</t>
-  </si>
-  <si>
-    <t>₹7L - ₹10L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://careers.thescalers.com/positions/qa-automation-engineer-406</t>
-  </si>
-  <si>
-    <t>Finastra USA Corporation
-3.8</t>
-  </si>
-  <si>
-    <t>https://careers.xactlycorp.com/jobs/1827/job?utm_source=indeed_integration&amp;iis=Job%20Board&amp;iisn=Indeed&amp;indeed-apply-token=73a2d2b2a8d6d5c0a62696875eaebd669103652d3f0c2cd5445d3e66b1592b0f</t>
-  </si>
-  <si>
-    <t>GE Healthcare
-4.3</t>
-  </si>
-  <si>
-    <t>₹7L - ₹8L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://jobs.verizon.com/jobs/12473649-engineer-iii-consultant-qa-test-automation?tm_job=621463-1A&amp;tm_event=view&amp;tm_company=781</t>
-  </si>
-  <si>
-    <t>Cloud Software Group
-1.6</t>
-  </si>
-  <si>
-    <t>₹6L - ₹11L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://phh.tbe.taleo.net/phh03/ats/careers/requisition.jsp?org=BETSLLC&amp;cws=1&amp;rid=1037</t>
-  </si>
-  <si>
-    <t>QA Automation Analyst</t>
-  </si>
-  <si>
-    <t>₹2L - ₹6L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>http://www.metamorfs.com/jobdetail/104</t>
-  </si>
-  <si>
-    <t>TIGI HR SOLUTION
-4.9</t>
-  </si>
-  <si>
-    <t>Software QA (SQA) engineer - (Manual Testing)</t>
-  </si>
-  <si>
-    <t>Employer Provided Salary:₹1L</t>
-  </si>
-  <si>
-    <t>https://career10.successfactors.com/career?career%5fns=job%5flisting&amp;company=zeomegainf&amp;navBarLevel=JOB%5fSEARCH&amp;rcm%5fsite%5flocale=en%5fUS&amp;site=VjItV2MrL0E5UUoyRmlYT2ZLVXV2OWV0UT09&amp;career_job_req_id=4133&amp;selected_lang=en_GB&amp;jobAlertController_jobAlertId=&amp;jobAlertController_jobAlertName=&amp;browserTimeZone=America/Chicago&amp;_s.crb=JMjOvsY2Sbasbl0%2bHZN8ZKQ5wdIe3T8sHTffLAN5BVE%3d</t>
-  </si>
-  <si>
-    <t>Loop Health
-4.7</t>
-  </si>
-  <si>
-    <t>Quality Engineer - Remote</t>
-  </si>
-  <si>
-    <t>₹4L - ₹9L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://recruit.fyers.in/jobs/Careers/38683000006670063/Software-QA-Engineer-1-or-2-?source=CareerSite</t>
-  </si>
-  <si>
-    <t>Paytm
-3.7</t>
-  </si>
-  <si>
-    <t>QA Automation - Senior QA Engineer</t>
-  </si>
-  <si>
-    <t>https://careers.finastra.com/jobs/7592/job?utm_source=indeed_integration&amp;iis=Job%20Board&amp;iisn=Indeed&amp;indeed-apply-token=73a2d2b2a8d6d5c0a62696875eaebd669103652d3f0c2cd5445d3e66b1592b0f</t>
-  </si>
-  <si>
-    <t>Autodesk
-4.3</t>
-  </si>
-  <si>
-    <t>Software QA Engineer - SDET ( Pytest)</t>
-  </si>
-  <si>
-    <t>₹9L - ₹10L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://ghc.wd1.myworkdayjobs.com/en-US/Kaplan_Careers/job/Bangalore-KA-India/QA-Automation-Engineer--Hybrid-_JR228134-2</t>
-  </si>
-  <si>
-    <t>Applied Systems India Private Limited
-3.0</t>
-  </si>
-  <si>
-    <t>₹7L - ₹9L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://jobs.gecareers.com/healthcare/global/en/job/R3698631/QA-Automation-Engineer?utm_source=indeed&amp;codes=indeed&amp;utm_medium=phenom-feeds&amp;ittk=NKBFX3BNG2</t>
-  </si>
-  <si>
-    <t>NOKIA
-4.2</t>
-  </si>
-  <si>
-    <t>Automation Tester, QA Engineer</t>
-  </si>
-  <si>
-    <t>https://careers.cloud.com/jobs/qa-engineer-bangalore-india?source=indeed</t>
-  </si>
-  <si>
-    <t>LSEG (London Stock Exchange Group)
-3.9</t>
-  </si>
-  <si>
-    <t>ForexClear QA Engineer</t>
-  </si>
-  <si>
-    <t>₹3L - ₹5L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://relx.wd3.myworkdayjobs.com/en-US/relx/job/Bengaluru/Quality-Test-Engineer-II_R56760-1</t>
-  </si>
-  <si>
-    <t>JLL
-3.9</t>
-  </si>
-  <si>
-    <t>Senior QA Automation Engineer</t>
-  </si>
-  <si>
-    <t>₹7L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://levistraussandco.wd5.myworkdayjobs.com/en-US/External/job/GCC-Office--ITC-Green-Center-Bengaluru-Karnataka-India/QA-Automation-Analyst_R-0103051</t>
-  </si>
-  <si>
-    <t>Harman International
-3.9</t>
-  </si>
-  <si>
-    <t>QA Engineer (GG 10B)</t>
-  </si>
-  <si>
-    <t>₹5L - ₹6L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://tigihr.com/jobs/view-job/2016/software-qa--sqa--engineer----manual-testing--/in-bangalore</t>
+    <t>Bigdata Developer Hadoop/Spark with Java OR Scala With Capgeminii</t>
+  </si>
+  <si>
+    <t>https://careers.labcorp.com/global/en/job/236525?rx_c=dxdd-bau-ga-waterfall&amp;rx_campaign=indeed213&amp;rx_ch=jobp4p&amp;rx_group=238610&amp;rx_job=236525&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230418T160004Z&amp;rx_vp=cpc&amp;source=indeed&amp;utm_campaign=rx-dx_dd-bau-g_a&amp;utm_medium=cpc&amp;utm_source=indeed&amp;rx_p=UU7GJZUZPG&amp;rx_viewer=f9054bdfde0511edb5cab97de43d9c17d297ebb55c344a478d90d81e62feab9e</t>
   </si>
 </sst>
 </file>
@@ -767,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -851,495 +830,563 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/JobDataExcel/JobData.xlsx
+++ b/JobDataExcel/JobData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac2Data/JobDataCollector/JobDataExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FA0B31-170A-FD40-A37B-4747AB4E8739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0F943C-5C0C-F048-8D21-8B3BBCE174FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Company Name</t>
   </si>
@@ -54,339 +54,174 @@
   </si>
   <si>
     <t>url</t>
-  </si>
-  <si>
-    <t>NetApp
-4.2</t>
-  </si>
-  <si>
-    <t>OIM (Oracle Identity Management) Engineer</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>₹1L - ₹1L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://goto.wd5.myworkdayjobs.com/GoToCareers/job/Bangalore-KA-IN/Senior-DevOps-Engineer_R23-1144?rx_campaign=indeed25&amp;rx_ch=jobp4p&amp;rx_group=234368&amp;rx_job=R23-1144&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120011Z&amp;rx_vp=cpc&amp;source=Indeed&amp;rx_p=TJD4JWTJMF&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9</t>
-  </si>
-  <si>
-    <t>Exeevo
-2.6</t>
-  </si>
-  <si>
-    <t>Senior Microsoft Dynamics 365 Developer</t>
-  </si>
-  <si>
-    <t>₹4L - ₹8L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://netapp.eightfold.ai/careers/job/15170783?domain=netapp.com&amp;p_sid=U6HyIdb&amp;p_uid=EClnQxVMaT&amp;ss=paid&amp;utm_campaign=india&amp;utm_content=pj_board&amp;utm_medium=jobad&amp;utm_source=indeed&amp;dclid=CMWmisqNov4CFdI8KwodgpMB5g</t>
-  </si>
-  <si>
-    <t>lululemon India Tech Hub
-4.3</t>
-  </si>
-  <si>
-    <t>Senior Fullstack Engineer</t>
-  </si>
-  <si>
-    <t>₹3L - ₹4L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://clarivate.wd3.myworkdayjobs.com/en-US/Clarivate_Careers/job/India---Bangalore/Lead-Software-Engineer_JREQ119833-1</t>
-  </si>
-  <si>
-    <t>Site Reliability Engineer</t>
-  </si>
-  <si>
-    <t>₹2L - ₹6L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://exeevo.bamboohr.com/jobs/view.php?id=48&amp;source=aWQ9MTk%3D</t>
-  </si>
-  <si>
-    <t>Infosys Limited
-3.9</t>
-  </si>
-  <si>
-    <t>.NET Core / Java Full stack Developers</t>
-  </si>
-  <si>
-    <t>₹3L - ₹8L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://talent500.co/jobs/lululemon-india-tech-hub/lululemon-india-tech-hub-full-stack-engineer-1287?utm_source=indeed&amp;utm_medium=cpc</t>
   </si>
   <si>
     <t>ANZ Banking Group
 4.1</t>
   </si>
   <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-154045</t>
-  </si>
-  <si>
-    <t>Uber
-4.3</t>
-  </si>
-  <si>
-    <t>Software Engineer II - Full Stack</t>
-  </si>
-  <si>
-    <t>₹5L - ₹6L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://talent500.co/jobs/hilton-gcc-by-ansr/hilton-gcc-by-ansr-engineer-enterprise-core-services-3901?utm_source=indeed&amp;utm_medium=cpc</t>
-  </si>
-  <si>
-    <t>Sr Software Engineer</t>
-  </si>
-  <si>
-    <t>₹1L - ₹5L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://netapp.eightfold.ai/careers/job/15415457?domain=netapp.com&amp;p_sid=Gq_DNjb&amp;p_uid=wFWRBARd7Z&amp;ss=paid&amp;utm_campaign=india&amp;utm_content=pj_board&amp;utm_medium=jobad&amp;utm_source=indeed&amp;dclid=CILxmu2Nov4CFXpOnQkdrZcHog</t>
-  </si>
-  <si>
-    <t>Sr Staff Engineer - Backend</t>
-  </si>
-  <si>
-    <t>₹4L - ₹5L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-155762</t>
-  </si>
-  <si>
-    <t>Power Programmer - Senior Technologist .NET Full Stack (FY- 24)</t>
-  </si>
-  <si>
-    <t>₹4L - ₹6L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://www.uber.com/global/en/careers/list/121487/?iis=marketing&amp;iisn=Indeed&amp;iisp=paid&amp;rx_campaign=indeed302&amp;rx_ch=jobp4p&amp;rx_group=201764&amp;rx_job=121487&amp;rx_p=UQVRZKBRIL&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120009Z&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9&amp;rx_vp=cpc</t>
-  </si>
-  <si>
-    <t>Sr. Software Engineer / Architect - Trip Operations Platform</t>
-  </si>
-  <si>
-    <t>https://careers.anz.com/job/Bengaluru-Engineer/937337810/</t>
-  </si>
-  <si>
-    <t>MES India
-3.1</t>
-  </si>
-  <si>
-    <t>Engineering Manager - Java &amp; Javascript</t>
-  </si>
-  <si>
-    <t>https://www.uber.com/global/en/careers/list/121384/?iis=marketing&amp;iisn=Indeed&amp;iisp=paid&amp;rx_campaign=indeed302&amp;rx_ch=jobp4p&amp;rx_group=201764&amp;rx_job=121384&amp;rx_p=J194QSDW9B&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120009Z&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9&amp;rx_vp=cpc</t>
-  </si>
-  <si>
-    <t>Staff Software Engineer - Communications Growth Platform</t>
-  </si>
-  <si>
-    <t>https://www.uber.com/global/en/careers/list/121486/?iis=marketing&amp;iisn=Indeed&amp;iisp=paid&amp;rx_campaign=indeed302&amp;rx_ch=jobp4p&amp;rx_group=201764&amp;rx_job=121486&amp;rx_p=OQEQXQCYOK&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120009Z&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9&amp;rx_vp=cpc</t>
-  </si>
-  <si>
-    <t>Capgemini
-4.0</t>
-  </si>
-  <si>
-    <t>Software Engineer Lead</t>
-  </si>
-  <si>
-    <t>₹4L - ₹4L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://www.uber.com/global/en/careers/list/119020/?iis=marketing&amp;iisn=Indeed&amp;iisp=paid&amp;rx_campaign=indeed302&amp;rx_ch=jobp4p&amp;rx_group=201764&amp;rx_job=119020&amp;rx_p=EEHPBGRUBX&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120009Z&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9&amp;rx_vp=cpc</t>
-  </si>
-  <si>
-    <t>Power Programmer - Specialist Programmer .NET Full Stack (FY-24)</t>
-  </si>
-  <si>
-    <t>https://www.uber.com/global/en/careers/list/120361/?iis=marketing&amp;iisn=Indeed&amp;iisp=paid&amp;rx_campaign=indeed302&amp;rx_ch=jobp4p&amp;rx_group=201764&amp;rx_job=120361&amp;rx_p=H4MMMZNRGW&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120009Z&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9&amp;rx_vp=cpc</t>
+    <t>Data Engineer/ Data Analyst</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>₹4L - ₹8L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://careers.anz.com/job/Bangalore-Data-Engineer-Data-Analyst/939035010/</t>
+  </si>
+  <si>
+    <t>Paytm
+3.7</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>₹6L - ₹8L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://jobs.mercedes-benz.com/Stellenanzeige/DE_390199/data-analyst.html</t>
   </si>
   <si>
     <t>Deloitte
 4.1</t>
   </si>
   <si>
-    <t>QC Engineer - Consultant / Sr. Consultant</t>
-  </si>
-  <si>
-    <t>₹5L - ₹10L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://www.uber.com/global/en/careers/list/121170/?iis=marketing&amp;iisn=Indeed&amp;iisp=paid&amp;rx_campaign=indeed302&amp;rx_ch=jobp4p&amp;rx_group=201764&amp;rx_job=121170&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230411T120009Z&amp;rx_viewer=87e6e889d87a11edac2675843d73a897f55c9c449e134b7781eefd6f98fd5df9&amp;rx_vp=cpc</t>
-  </si>
-  <si>
-    <t>nahar technologies
-3.8</t>
-  </si>
-  <si>
-    <t>Software Developer (Java, J2EE)</t>
-  </si>
-  <si>
-    <t>₹3L - ₹7L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>about:blank</t>
-  </si>
-  <si>
-    <t>Gigahertz Computing (India)
-3.2</t>
-  </si>
-  <si>
-    <t>Jr. Java Developer</t>
-  </si>
-  <si>
-    <t>Clorida
-1.6</t>
-  </si>
-  <si>
-    <t>Junior Java Developers</t>
-  </si>
-  <si>
-    <t>Java Developer</t>
-  </si>
-  <si>
-    <t>₹6L - ₹8L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-155392</t>
+    <t>Senior Analyst - AI SGO Data Scientist - Bengaluru</t>
+  </si>
+  <si>
+    <t>₹3L - ₹10L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/paytm/3fad3971-ad29-493c-8474-292efacf0fad</t>
+  </si>
+  <si>
+    <t>Volvo Group
+4.2</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>₹9L - ₹10L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://usijobs.deloitte.com/careersUSI/JobDetail/USI-EH23-EA-BGS-AI-SGO-Data-Scientist-SA/133079</t>
   </si>
   <si>
     <t>Mercedes-Benz Research and Development India Private Limited
 4.0</t>
   </si>
   <si>
-    <t>Java Full stack developer</t>
-  </si>
-  <si>
-    <t>₹3L - ₹3L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>Tatwa Technologies
-4.3</t>
-  </si>
-  <si>
-    <t>https://jobs.mercedes-benz.com/Stellenanzeige/DE_390102/java-full-stack-developer.html</t>
-  </si>
-  <si>
-    <t>Log9 Materials
-4.3</t>
-  </si>
-  <si>
-    <t>Java Developer (Experienced 2-4 Yrs)</t>
-  </si>
-  <si>
-    <t>₹3L - ₹6L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://www.tatwa.com/careers.html#</t>
-  </si>
-  <si>
-    <t>Java Back end developer</t>
-  </si>
-  <si>
-    <t>https://daytonasystems.in/daytonacareers/java-intern-backend/</t>
-  </si>
-  <si>
-    <t>Hitachi Energy
-3.9</t>
-  </si>
-  <si>
-    <t>Junior Java Software Engineer</t>
+    <t>Data Scientist/ Analyst - T9</t>
+  </si>
+  <si>
+    <t>₹8L - ₹9L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://xjobs.brassring.com/TGnewUI/Search/home/HomeWithPreLoad?partnerid=25079&amp;siteid=5171&amp;PageType=JobDetails&amp;jobid=759411#jobDetails=759411_5171</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase Bank, N.A.
+4.0</t>
+  </si>
+  <si>
+    <t>Reference Data - Analyst</t>
+  </si>
+  <si>
+    <t>https://jobs.mercedes-benz.com/Stellenanzeige/DE_332233/data-scientist-analyst-t9.html</t>
+  </si>
+  <si>
+    <t>AECOM
+3.8</t>
+  </si>
+  <si>
+    <t>₹8L - ₹11L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://jpmc.fa.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1001/job/210395036/?utm_medium=jobshare&amp;src=Indeed</t>
+  </si>
+  <si>
+    <t>Enverus
+4.1</t>
+  </si>
+  <si>
+    <t>Data Analyst, Global Intelligence - 23135</t>
+  </si>
+  <si>
+    <t>₹5L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://jobs.smartrecruiters.com/AECOM2/743999900866210-data-analyst</t>
+  </si>
+  <si>
+    <t>Zycus
+4.9</t>
+  </si>
+  <si>
+    <t>₹3L - ₹7L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://www.enverus.com/careers/?p=job/oRaYmfw5&amp;__jvst=Job+Board&amp;__jvsd=Indeed&amp;nl=1</t>
+  </si>
+  <si>
+    <t>NatWest Group
+4.0</t>
   </si>
   <si>
     <t>₹4L - ₹7L (Glassdoor Est.)</t>
   </si>
   <si>
-    <t>https://www.log9materials.com/careers/?jobId=CeGPNorHfAhw</t>
+    <t>about:blank</t>
+  </si>
+  <si>
+    <t>TARGET
+4.4</t>
+  </si>
+  <si>
+    <t>₹7L - ₹7L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://jobs.target.com/job/-/-/1118/47710030096</t>
+  </si>
+  <si>
+    <t>Siemens
+4.1</t>
+  </si>
+  <si>
+    <t>₹6L - ₹7L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/paytm/8adae414-998c-4e98-8bf6-cb1bd0897f58</t>
+  </si>
+  <si>
+    <t>Xperi
+4.0</t>
+  </si>
+  <si>
+    <t>Staff Data Analyst</t>
+  </si>
+  <si>
+    <t>₹5L - ₹7L (Glassdoor Est.)</t>
+  </si>
+  <si>
+    <t>https://jobs.siemens.com/careers/job/563156115688264?domain=siemens.com&amp;hl=en&amp;utm_source=Indeed&amp;microsite=siemens.com</t>
   </si>
   <si>
     <t>Clarivate
 3.5</t>
   </si>
   <si>
-    <t>Lead Software Engineer</t>
-  </si>
-  <si>
-    <t>₹6L - ₹7L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>GoTo
+    <t>https://jobs.jobvite.com/careers/tivo/job/o9TImfwQ?__jvst=Job%20Board&amp;__jvsd=Indeed</t>
+  </si>
+  <si>
+    <t>Netradyne
 3.9</t>
   </si>
   <si>
-    <t>Staff Machine Learning Engineer</t>
-  </si>
-  <si>
-    <t>₹2L - ₹8L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://goto.wd5.myworkdayjobs.com/GoToCareers/job/Bangalore-KA-IN/Senior-DevOps-Engineer_R23-1144?rx_campaign=indeed25&amp;rx_ch=jobp4p&amp;rx_group=234368&amp;rx_job=R23-1144&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230418T120127Z&amp;rx_vp=cpc&amp;source=Indeed&amp;rx_p=QJAFNZC8S3&amp;rx_viewer=f9054bdfde0511edb5cab97de43d9c17d297ebb55c344a478d90d81e62feab9e</t>
-  </si>
-  <si>
-    <t>Infosys
-3.9</t>
-  </si>
-  <si>
-    <t>Technology Analyst - Java (3-5 years) - Bangalore</t>
-  </si>
-  <si>
-    <t>₹5L - ₹8L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://recruitingapp-5315.de.umantis.com/Vacancies/2121/Description/2</t>
-  </si>
-  <si>
-    <t>https://usijobs.deloitte.com/careersUSI/JobDetail/USI-R-FA-EH-QC-Engineer-SA-LSA/139565</t>
-  </si>
-  <si>
-    <t>Technology Lead - Java (5-8 years) - Bangalore</t>
-  </si>
-  <si>
-    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-156175</t>
-  </si>
-  <si>
-    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-155455</t>
-  </si>
-  <si>
-    <t>Telstra
-4.0</t>
-  </si>
-  <si>
-    <t>Senior Software Engineer</t>
-  </si>
-  <si>
-    <t>₹5L - ₹9L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-155237</t>
-  </si>
-  <si>
-    <t>Engineer - Backend</t>
-  </si>
-  <si>
-    <t>₹4L - ₹9L (Glassdoor Est.)</t>
-  </si>
-  <si>
-    <t>https://career.infosys.com/jobdesc?jobReferenceCode=INFSYS-EXTERNAL-154046</t>
-  </si>
-  <si>
-    <t>Capgemini Technology Services India Limited
-4.0</t>
-  </si>
-  <si>
-    <t>Bigdata Developer Hadoop/Spark with Java OR Scala With Capgeminii</t>
-  </si>
-  <si>
-    <t>https://careers.labcorp.com/global/en/job/236525?rx_c=dxdd-bau-ga-waterfall&amp;rx_campaign=indeed213&amp;rx_ch=jobp4p&amp;rx_group=238610&amp;rx_job=236525&amp;rx_r=none&amp;rx_source=Indeed&amp;rx_ts=20230418T160004Z&amp;rx_vp=cpc&amp;source=indeed&amp;utm_campaign=rx-dx_dd-bau-g_a&amp;utm_medium=cpc&amp;utm_source=indeed&amp;rx_p=UU7GJZUZPG&amp;rx_viewer=f9054bdfde0511edb5cab97de43d9c17d297ebb55c344a478d90d81e62feab9e</t>
+    <t>https://clarivate.wd3.myworkdayjobs.com/en-US/Clarivate_Careers/job/India---Bangalore/Data-Analyst_JREQ121368</t>
   </si>
 </sst>
 </file>
@@ -746,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,44 +665,44 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -876,15 +711,15 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -898,495 +733,138 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
